--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cell.annotation_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cell.annotation_speed_coherence.xlsx
@@ -542,64 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.970285892486572</v>
+        <v>4.970381259918213</v>
       </c>
       <c r="C2" t="n">
-        <v>3.442555665969849</v>
+        <v>3.442952871322632</v>
       </c>
       <c r="D2" t="n">
-        <v>4.254232406616211</v>
+        <v>4.254561424255371</v>
       </c>
       <c r="E2" t="n">
-        <v>4.236527442932129</v>
+        <v>4.236161708831787</v>
       </c>
       <c r="F2" t="n">
-        <v>4.033298969268799</v>
+        <v>4.034185409545898</v>
       </c>
       <c r="G2" t="n">
-        <v>4.059566497802734</v>
+        <v>4.059272766113281</v>
       </c>
       <c r="H2" t="n">
-        <v>4.393623352050781</v>
+        <v>4.391956806182861</v>
       </c>
       <c r="I2" t="n">
-        <v>5.293718814849854</v>
+        <v>5.294531345367432</v>
       </c>
       <c r="J2" t="n">
-        <v>5.905729293823242</v>
+        <v>5.904749870300293</v>
       </c>
       <c r="K2" t="n">
-        <v>5.273198127746582</v>
+        <v>5.273279190063477</v>
       </c>
       <c r="L2" t="n">
-        <v>13.80692291259766</v>
+        <v>13.80631542205811</v>
       </c>
       <c r="M2" t="n">
-        <v>9.555863380432129</v>
+        <v>9.556474685668945</v>
       </c>
       <c r="N2" t="n">
-        <v>3.94231915473938</v>
+        <v>3.94219446182251</v>
       </c>
       <c r="O2" t="n">
-        <v>5.863974571228027</v>
+        <v>5.864227771759033</v>
       </c>
       <c r="P2" t="n">
-        <v>5.093128681182861</v>
+        <v>5.093552589416504</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.10360717773438</v>
+        <v>33.10398483276367</v>
       </c>
       <c r="R2" t="n">
-        <v>4.481098651885986</v>
+        <v>4.480494499206543</v>
       </c>
       <c r="S2" t="n">
-        <v>3.055999994277954</v>
+        <v>3.055981874465942</v>
       </c>
       <c r="T2" t="n">
-        <v>7.364262580871582</v>
+        <v>7.364424228668213</v>
       </c>
       <c r="U2" t="n">
-        <v>3.796782732009888</v>
+        <v>3.796826124191284</v>
       </c>
     </row>
     <row r="3">
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9368569711844127</v>
+        <v>0.9368530687831697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8730316422417501</v>
+        <v>0.8730283927532935</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8984299724954262</v>
+        <v>0.8984486124429264</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8933934706309445</v>
+        <v>0.8933990361173844</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8645438979581459</v>
+        <v>0.8645572972666357</v>
       </c>
       <c r="G3" t="n">
-        <v>0.901115065239943</v>
+        <v>0.901086145545636</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8620419724695925</v>
+        <v>0.8620119613149891</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9350170252844692</v>
+        <v>0.9350524662062526</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9379542204240958</v>
+        <v>0.9379395720859368</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9208453136821125</v>
+        <v>0.9208448514688846</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9598268934107019</v>
+        <v>0.959839950447623</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9168461611588224</v>
+        <v>0.9168832055527529</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8582191292633142</v>
+        <v>0.858217592251271</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8788114173275561</v>
+        <v>0.8788407030494341</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8303732637675417</v>
+        <v>0.8303429655011868</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9699726037513045</v>
+        <v>0.9699716231876746</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9154608714711535</v>
+        <v>0.9154966247605754</v>
       </c>
       <c r="S3" t="n">
-        <v>0.858748872388493</v>
+        <v>0.8587521109255878</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9506742925354928</v>
+        <v>0.950715447315062</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8820482313632965</v>
+        <v>0.8820448362309</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cell.annotation_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_cell.annotation_speed_coherence.xlsx
@@ -542,64 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.970381259918213</v>
+        <v>4.970285892486572</v>
       </c>
       <c r="C2" t="n">
-        <v>3.442952871322632</v>
+        <v>3.442555665969849</v>
       </c>
       <c r="D2" t="n">
-        <v>4.254561424255371</v>
+        <v>4.254364013671875</v>
       </c>
       <c r="E2" t="n">
-        <v>4.236161708831787</v>
+        <v>4.236527442932129</v>
       </c>
       <c r="F2" t="n">
-        <v>4.034185409545898</v>
+        <v>4.033298969268799</v>
       </c>
       <c r="G2" t="n">
-        <v>4.059272766113281</v>
+        <v>4.059566497802734</v>
       </c>
       <c r="H2" t="n">
-        <v>4.391956806182861</v>
+        <v>4.393623352050781</v>
       </c>
       <c r="I2" t="n">
-        <v>5.294531345367432</v>
+        <v>5.293718814849854</v>
       </c>
       <c r="J2" t="n">
-        <v>5.904749870300293</v>
+        <v>5.905729293823242</v>
       </c>
       <c r="K2" t="n">
-        <v>5.273279190063477</v>
+        <v>5.273198127746582</v>
       </c>
       <c r="L2" t="n">
-        <v>13.80631542205811</v>
+        <v>13.80692291259766</v>
       </c>
       <c r="M2" t="n">
-        <v>9.556474685668945</v>
+        <v>9.555863380432129</v>
       </c>
       <c r="N2" t="n">
-        <v>3.94219446182251</v>
+        <v>3.94231915473938</v>
       </c>
       <c r="O2" t="n">
-        <v>5.864227771759033</v>
+        <v>5.863974571228027</v>
       </c>
       <c r="P2" t="n">
-        <v>5.093552589416504</v>
+        <v>5.093128681182861</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.10398483276367</v>
+        <v>33.10360717773438</v>
       </c>
       <c r="R2" t="n">
-        <v>4.480494499206543</v>
+        <v>4.481098651885986</v>
       </c>
       <c r="S2" t="n">
-        <v>3.055981874465942</v>
+        <v>3.055999994277954</v>
       </c>
       <c r="T2" t="n">
-        <v>7.364424228668213</v>
+        <v>7.364262580871582</v>
       </c>
       <c r="U2" t="n">
-        <v>3.796826124191284</v>
+        <v>3.796782732009888</v>
       </c>
     </row>
     <row r="3">
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9368530687831697</v>
+        <v>0.9368570452644711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8730283927532935</v>
+        <v>0.8730316838762601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8984486124429264</v>
+        <v>0.8984353746238508</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8933990361173844</v>
+        <v>0.8933946957164894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8645572972666357</v>
+        <v>0.8645440370151677</v>
       </c>
       <c r="G3" t="n">
-        <v>0.901086145545636</v>
+        <v>0.9011152514106744</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8620119613149891</v>
+        <v>0.8620420843362808</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9350524662062526</v>
+        <v>0.9350171819329262</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9379395720859368</v>
+        <v>0.9379542543242375</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9208448514688846</v>
+        <v>0.9208455888337868</v>
       </c>
       <c r="L3" t="n">
-        <v>0.959839950447623</v>
+        <v>0.9598269506022032</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9168832055527529</v>
+        <v>0.9168462668605846</v>
       </c>
       <c r="N3" t="n">
-        <v>0.858217592251271</v>
+        <v>0.8582192571680445</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8788407030494341</v>
+        <v>0.8788115265488947</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8303429655011868</v>
+        <v>0.8303733373327874</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9699716231876746</v>
+        <v>0.9699726216775134</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9154966247605754</v>
+        <v>0.9154614331303063</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8587521109255878</v>
+        <v>0.8587493315610019</v>
       </c>
       <c r="T3" t="n">
-        <v>0.950715447315062</v>
+        <v>0.9506743384130073</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8820448362309</v>
+        <v>0.8820484272811724</v>
       </c>
     </row>
   </sheetData>
